--- a/Projects/HydraulicFracturePropagation/PlaneFracture/MaterialIds Table.xlsx
+++ b/Projects/HydraulicFracturePropagation/PlaneFracture/MaterialIds Table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
@@ -48,9 +48,6 @@
     <t>LAYER (max=100)</t>
   </si>
   <si>
-    <t>Stripe (max=10)</t>
-  </si>
-  <si>
     <t>Bullet</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Material ids used in (struct MaterialIdGen) on file (/NeoPZ/Projects/HydraulicFracturePropagation/PlaneFracture/TPZPlaneFractureData.h)</t>
+  </si>
+  <si>
+    <t>Stripe (max=2009)</t>
   </si>
 </sst>
 </file>
@@ -73,7 +73,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -215,11 +214,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -234,7 +235,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -252,52 +253,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -458,19 +414,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -527,6 +470,80 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -552,6 +569,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,6 +579,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -576,134 +602,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1045,7 +1062,8 @@
   <dimension ref="B1:T105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1058,103 +1076,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="72" customHeight="1" thickBot="1">
-      <c r="B1" s="54" t="s">
-        <v>13</v>
+      <c r="B1" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="16" thickBot="1">
       <c r="B2" s="16"/>
       <c r="C2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23"/>
+      <c r="D2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="42" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="28"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="2:20" ht="16" thickBot="1">
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="17">
         <v>0</v>
       </c>
@@ -1185,12 +1203,12 @@
       <c r="N5" s="19">
         <v>9</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="29"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="2:20" ht="16" thickBot="1">
       <c r="B6" s="12">
@@ -1245,26 +1263,26 @@
         <v>-1019</v>
       </c>
       <c r="O6" s="12">
-        <f>-($C6+2000)</f>
-        <v>-2010</v>
-      </c>
-      <c r="P6" s="12">
         <f>-($C6+3000)</f>
         <v>-3010</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="P6" s="12">
         <f>-($C6+4000)</f>
         <v>-4010</v>
       </c>
-      <c r="R6" s="12">
+      <c r="Q6" s="12">
         <f>-($C6+5000)</f>
         <v>-5010</v>
       </c>
+      <c r="R6" s="12">
+        <f>-($C6+6000)</f>
+        <v>-6010</v>
+      </c>
       <c r="S6" s="15">
-        <v>-6010</v>
+        <v>-7010</v>
       </c>
       <c r="T6" s="15">
-        <v>-7010</v>
+        <v>-8010</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -1320,20 +1338,20 @@
         <v>-1029</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" ref="O7:O70" si="4">-($C7+2000)</f>
-        <v>-2020</v>
+        <f>-($C7+3000)</f>
+        <v>-3020</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" ref="P7:P70" si="5">-($C7+3000)</f>
-        <v>-3020</v>
+        <f>-($C7+4000)</f>
+        <v>-4020</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" ref="Q7:Q70" si="6">-($C7+4000)</f>
-        <v>-4020</v>
+        <f>-($C7+5000)</f>
+        <v>-5020</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" ref="R7:R70" si="7">-($C7+5000)</f>
-        <v>-5020</v>
+        <f>-($C7+6000)</f>
+        <v>-6020</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -1389,20 +1407,20 @@
         <v>-1039</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="4"/>
-        <v>-2030</v>
+        <f t="shared" ref="O8:O71" si="4">-($C8+3000)</f>
+        <v>-3030</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="5"/>
-        <v>-3030</v>
+        <f t="shared" ref="P8:P71" si="5">-($C8+4000)</f>
+        <v>-4030</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="6"/>
-        <v>-4030</v>
+        <f t="shared" ref="Q8:Q71" si="6">-($C8+5000)</f>
+        <v>-5030</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="7"/>
-        <v>-5030</v>
+        <f t="shared" ref="R8:R71" si="7">-($C8+6000)</f>
+        <v>-6030</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -1459,19 +1477,19 @@
       </c>
       <c r="O9" s="5">
         <f t="shared" si="4"/>
-        <v>-2040</v>
+        <v>-3040</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="5"/>
-        <v>-3040</v>
+        <v>-4040</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="6"/>
-        <v>-4040</v>
+        <v>-5040</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="7"/>
-        <v>-5040</v>
+        <v>-6040</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -1528,19 +1546,19 @@
       </c>
       <c r="O10" s="5">
         <f t="shared" si="4"/>
-        <v>-2050</v>
+        <v>-3050</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="5"/>
-        <v>-3050</v>
+        <v>-4050</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="6"/>
-        <v>-4050</v>
+        <v>-5050</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="7"/>
-        <v>-5050</v>
+        <v>-6050</v>
       </c>
     </row>
     <row r="11" spans="2:20">
@@ -1597,19 +1615,19 @@
       </c>
       <c r="O11" s="5">
         <f t="shared" si="4"/>
-        <v>-2060</v>
+        <v>-3060</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="5"/>
-        <v>-3060</v>
+        <v>-4060</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="6"/>
-        <v>-4060</v>
+        <v>-5060</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="7"/>
-        <v>-5060</v>
+        <v>-6060</v>
       </c>
     </row>
     <row r="12" spans="2:20">
@@ -1666,19 +1684,19 @@
       </c>
       <c r="O12" s="5">
         <f t="shared" si="4"/>
-        <v>-2070</v>
+        <v>-3070</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="5"/>
-        <v>-3070</v>
+        <v>-4070</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="6"/>
-        <v>-4070</v>
+        <v>-5070</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="7"/>
-        <v>-5070</v>
+        <v>-6070</v>
       </c>
     </row>
     <row r="13" spans="2:20">
@@ -1735,19 +1753,19 @@
       </c>
       <c r="O13" s="5">
         <f t="shared" si="4"/>
-        <v>-2080</v>
+        <v>-3080</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="5"/>
-        <v>-3080</v>
+        <v>-4080</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="6"/>
-        <v>-4080</v>
+        <v>-5080</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="7"/>
-        <v>-5080</v>
+        <v>-6080</v>
       </c>
     </row>
     <row r="14" spans="2:20">
@@ -1804,19 +1822,19 @@
       </c>
       <c r="O14" s="5">
         <f t="shared" si="4"/>
-        <v>-2090</v>
+        <v>-3090</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="5"/>
-        <v>-3090</v>
+        <v>-4090</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="6"/>
-        <v>-4090</v>
+        <v>-5090</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="7"/>
-        <v>-5090</v>
+        <v>-6090</v>
       </c>
     </row>
     <row r="15" spans="2:20">
@@ -1873,19 +1891,19 @@
       </c>
       <c r="O15" s="5">
         <f t="shared" si="4"/>
-        <v>-2100</v>
+        <v>-3100</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="5"/>
-        <v>-3100</v>
+        <v>-4100</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="6"/>
-        <v>-4100</v>
+        <v>-5100</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="7"/>
-        <v>-5100</v>
+        <v>-6100</v>
       </c>
     </row>
     <row r="16" spans="2:20">
@@ -1942,19 +1960,19 @@
       </c>
       <c r="O16" s="5">
         <f t="shared" si="4"/>
-        <v>-2110</v>
+        <v>-3110</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="5"/>
-        <v>-3110</v>
+        <v>-4110</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="6"/>
-        <v>-4110</v>
+        <v>-5110</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="7"/>
-        <v>-5110</v>
+        <v>-6110</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -2011,19 +2029,19 @@
       </c>
       <c r="O17" s="5">
         <f t="shared" si="4"/>
-        <v>-2120</v>
+        <v>-3120</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="5"/>
-        <v>-3120</v>
+        <v>-4120</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="6"/>
-        <v>-4120</v>
+        <v>-5120</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="7"/>
-        <v>-5120</v>
+        <v>-6120</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -2080,19 +2098,19 @@
       </c>
       <c r="O18" s="5">
         <f t="shared" si="4"/>
-        <v>-2130</v>
+        <v>-3130</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="5"/>
-        <v>-3130</v>
+        <v>-4130</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="6"/>
-        <v>-4130</v>
+        <v>-5130</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="7"/>
-        <v>-5130</v>
+        <v>-6130</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -2149,19 +2167,19 @@
       </c>
       <c r="O19" s="5">
         <f t="shared" si="4"/>
-        <v>-2140</v>
+        <v>-3140</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="5"/>
-        <v>-3140</v>
+        <v>-4140</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="6"/>
-        <v>-4140</v>
+        <v>-5140</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="7"/>
-        <v>-5140</v>
+        <v>-6140</v>
       </c>
     </row>
     <row r="20" spans="2:18">
@@ -2218,19 +2236,19 @@
       </c>
       <c r="O20" s="5">
         <f t="shared" si="4"/>
-        <v>-2150</v>
+        <v>-3150</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" si="5"/>
-        <v>-3150</v>
+        <v>-4150</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="6"/>
-        <v>-4150</v>
+        <v>-5150</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="7"/>
-        <v>-5150</v>
+        <v>-6150</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -2287,19 +2305,19 @@
       </c>
       <c r="O21" s="5">
         <f t="shared" si="4"/>
-        <v>-2160</v>
+        <v>-3160</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="5"/>
-        <v>-3160</v>
+        <v>-4160</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="6"/>
-        <v>-4160</v>
+        <v>-5160</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="7"/>
-        <v>-5160</v>
+        <v>-6160</v>
       </c>
     </row>
     <row r="22" spans="2:18">
@@ -2356,19 +2374,19 @@
       </c>
       <c r="O22" s="5">
         <f t="shared" si="4"/>
-        <v>-2170</v>
+        <v>-3170</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="5"/>
-        <v>-3170</v>
+        <v>-4170</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="6"/>
-        <v>-4170</v>
+        <v>-5170</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="7"/>
-        <v>-5170</v>
+        <v>-6170</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -2425,19 +2443,19 @@
       </c>
       <c r="O23" s="5">
         <f t="shared" si="4"/>
-        <v>-2180</v>
+        <v>-3180</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="5"/>
-        <v>-3180</v>
+        <v>-4180</v>
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="6"/>
-        <v>-4180</v>
+        <v>-5180</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="7"/>
-        <v>-5180</v>
+        <v>-6180</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -2494,19 +2512,19 @@
       </c>
       <c r="O24" s="5">
         <f t="shared" si="4"/>
-        <v>-2190</v>
+        <v>-3190</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="5"/>
-        <v>-3190</v>
+        <v>-4190</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="6"/>
-        <v>-4190</v>
+        <v>-5190</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="7"/>
-        <v>-5190</v>
+        <v>-6190</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -2563,19 +2581,19 @@
       </c>
       <c r="O25" s="5">
         <f t="shared" si="4"/>
-        <v>-2200</v>
+        <v>-3200</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="5"/>
-        <v>-3200</v>
+        <v>-4200</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="6"/>
-        <v>-4200</v>
+        <v>-5200</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="7"/>
-        <v>-5200</v>
+        <v>-6200</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -2632,19 +2650,19 @@
       </c>
       <c r="O26" s="5">
         <f t="shared" si="4"/>
-        <v>-2210</v>
+        <v>-3210</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="5"/>
-        <v>-3210</v>
+        <v>-4210</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="6"/>
-        <v>-4210</v>
+        <v>-5210</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="7"/>
-        <v>-5210</v>
+        <v>-6210</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -2701,19 +2719,19 @@
       </c>
       <c r="O27" s="5">
         <f t="shared" si="4"/>
-        <v>-2220</v>
+        <v>-3220</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="5"/>
-        <v>-3220</v>
+        <v>-4220</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="6"/>
-        <v>-4220</v>
+        <v>-5220</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="7"/>
-        <v>-5220</v>
+        <v>-6220</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -2770,19 +2788,19 @@
       </c>
       <c r="O28" s="5">
         <f t="shared" si="4"/>
-        <v>-2230</v>
+        <v>-3230</v>
       </c>
       <c r="P28" s="5">
         <f t="shared" si="5"/>
-        <v>-3230</v>
+        <v>-4230</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="6"/>
-        <v>-4230</v>
+        <v>-5230</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="7"/>
-        <v>-5230</v>
+        <v>-6230</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -2839,19 +2857,19 @@
       </c>
       <c r="O29" s="5">
         <f t="shared" si="4"/>
-        <v>-2240</v>
+        <v>-3240</v>
       </c>
       <c r="P29" s="5">
         <f t="shared" si="5"/>
-        <v>-3240</v>
+        <v>-4240</v>
       </c>
       <c r="Q29" s="5">
         <f t="shared" si="6"/>
-        <v>-4240</v>
+        <v>-5240</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="7"/>
-        <v>-5240</v>
+        <v>-6240</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -2908,19 +2926,19 @@
       </c>
       <c r="O30" s="5">
         <f t="shared" si="4"/>
-        <v>-2250</v>
+        <v>-3250</v>
       </c>
       <c r="P30" s="5">
         <f t="shared" si="5"/>
-        <v>-3250</v>
+        <v>-4250</v>
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="6"/>
-        <v>-4250</v>
+        <v>-5250</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="7"/>
-        <v>-5250</v>
+        <v>-6250</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -2977,19 +2995,19 @@
       </c>
       <c r="O31" s="5">
         <f t="shared" si="4"/>
-        <v>-2260</v>
+        <v>-3260</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="5"/>
-        <v>-3260</v>
+        <v>-4260</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="6"/>
-        <v>-4260</v>
+        <v>-5260</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="7"/>
-        <v>-5260</v>
+        <v>-6260</v>
       </c>
     </row>
     <row r="32" spans="2:18">
@@ -3046,19 +3064,19 @@
       </c>
       <c r="O32" s="5">
         <f t="shared" si="4"/>
-        <v>-2270</v>
+        <v>-3270</v>
       </c>
       <c r="P32" s="5">
         <f t="shared" si="5"/>
-        <v>-3270</v>
+        <v>-4270</v>
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="6"/>
-        <v>-4270</v>
+        <v>-5270</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="7"/>
-        <v>-5270</v>
+        <v>-6270</v>
       </c>
     </row>
     <row r="33" spans="2:18">
@@ -3115,19 +3133,19 @@
       </c>
       <c r="O33" s="5">
         <f t="shared" si="4"/>
-        <v>-2280</v>
+        <v>-3280</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" si="5"/>
-        <v>-3280</v>
+        <v>-4280</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="6"/>
-        <v>-4280</v>
+        <v>-5280</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="7"/>
-        <v>-5280</v>
+        <v>-6280</v>
       </c>
     </row>
     <row r="34" spans="2:18">
@@ -3184,19 +3202,19 @@
       </c>
       <c r="O34" s="5">
         <f t="shared" si="4"/>
-        <v>-2290</v>
+        <v>-3290</v>
       </c>
       <c r="P34" s="5">
         <f t="shared" si="5"/>
-        <v>-3290</v>
+        <v>-4290</v>
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="6"/>
-        <v>-4290</v>
+        <v>-5290</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="7"/>
-        <v>-5290</v>
+        <v>-6290</v>
       </c>
     </row>
     <row r="35" spans="2:18">
@@ -3253,19 +3271,19 @@
       </c>
       <c r="O35" s="5">
         <f t="shared" si="4"/>
-        <v>-2300</v>
+        <v>-3300</v>
       </c>
       <c r="P35" s="5">
         <f t="shared" si="5"/>
-        <v>-3300</v>
+        <v>-4300</v>
       </c>
       <c r="Q35" s="5">
         <f t="shared" si="6"/>
-        <v>-4300</v>
+        <v>-5300</v>
       </c>
       <c r="R35" s="5">
         <f t="shared" si="7"/>
-        <v>-5300</v>
+        <v>-6300</v>
       </c>
     </row>
     <row r="36" spans="2:18">
@@ -3322,19 +3340,19 @@
       </c>
       <c r="O36" s="5">
         <f t="shared" si="4"/>
-        <v>-2310</v>
+        <v>-3310</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="5"/>
-        <v>-3310</v>
+        <v>-4310</v>
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="6"/>
-        <v>-4310</v>
+        <v>-5310</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="7"/>
-        <v>-5310</v>
+        <v>-6310</v>
       </c>
     </row>
     <row r="37" spans="2:18">
@@ -3391,19 +3409,19 @@
       </c>
       <c r="O37" s="5">
         <f t="shared" si="4"/>
-        <v>-2320</v>
+        <v>-3320</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="5"/>
-        <v>-3320</v>
+        <v>-4320</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="6"/>
-        <v>-4320</v>
+        <v>-5320</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="7"/>
-        <v>-5320</v>
+        <v>-6320</v>
       </c>
     </row>
     <row r="38" spans="2:18">
@@ -3460,19 +3478,19 @@
       </c>
       <c r="O38" s="5">
         <f t="shared" si="4"/>
-        <v>-2330</v>
+        <v>-3330</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="5"/>
-        <v>-3330</v>
+        <v>-4330</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="6"/>
-        <v>-4330</v>
+        <v>-5330</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="7"/>
-        <v>-5330</v>
+        <v>-6330</v>
       </c>
     </row>
     <row r="39" spans="2:18">
@@ -3529,19 +3547,19 @@
       </c>
       <c r="O39" s="5">
         <f t="shared" si="4"/>
-        <v>-2340</v>
+        <v>-3340</v>
       </c>
       <c r="P39" s="5">
         <f t="shared" si="5"/>
-        <v>-3340</v>
+        <v>-4340</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="6"/>
-        <v>-4340</v>
+        <v>-5340</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="7"/>
-        <v>-5340</v>
+        <v>-6340</v>
       </c>
     </row>
     <row r="40" spans="2:18">
@@ -3598,19 +3616,19 @@
       </c>
       <c r="O40" s="5">
         <f t="shared" si="4"/>
-        <v>-2350</v>
+        <v>-3350</v>
       </c>
       <c r="P40" s="5">
         <f t="shared" si="5"/>
-        <v>-3350</v>
+        <v>-4350</v>
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="6"/>
-        <v>-4350</v>
+        <v>-5350</v>
       </c>
       <c r="R40" s="5">
         <f t="shared" si="7"/>
-        <v>-5350</v>
+        <v>-6350</v>
       </c>
     </row>
     <row r="41" spans="2:18">
@@ -3667,19 +3685,19 @@
       </c>
       <c r="O41" s="5">
         <f t="shared" si="4"/>
-        <v>-2360</v>
+        <v>-3360</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" si="5"/>
-        <v>-3360</v>
+        <v>-4360</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="6"/>
-        <v>-4360</v>
+        <v>-5360</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="7"/>
-        <v>-5360</v>
+        <v>-6360</v>
       </c>
     </row>
     <row r="42" spans="2:18">
@@ -3736,19 +3754,19 @@
       </c>
       <c r="O42" s="5">
         <f t="shared" si="4"/>
-        <v>-2370</v>
+        <v>-3370</v>
       </c>
       <c r="P42" s="5">
         <f t="shared" si="5"/>
-        <v>-3370</v>
+        <v>-4370</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="6"/>
-        <v>-4370</v>
+        <v>-5370</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="7"/>
-        <v>-5370</v>
+        <v>-6370</v>
       </c>
     </row>
     <row r="43" spans="2:18">
@@ -3805,19 +3823,19 @@
       </c>
       <c r="O43" s="5">
         <f t="shared" si="4"/>
-        <v>-2380</v>
+        <v>-3380</v>
       </c>
       <c r="P43" s="5">
         <f t="shared" si="5"/>
-        <v>-3380</v>
+        <v>-4380</v>
       </c>
       <c r="Q43" s="5">
         <f t="shared" si="6"/>
-        <v>-4380</v>
+        <v>-5380</v>
       </c>
       <c r="R43" s="5">
         <f t="shared" si="7"/>
-        <v>-5380</v>
+        <v>-6380</v>
       </c>
     </row>
     <row r="44" spans="2:18">
@@ -3874,19 +3892,19 @@
       </c>
       <c r="O44" s="5">
         <f t="shared" si="4"/>
-        <v>-2390</v>
+        <v>-3390</v>
       </c>
       <c r="P44" s="5">
         <f t="shared" si="5"/>
-        <v>-3390</v>
+        <v>-4390</v>
       </c>
       <c r="Q44" s="5">
         <f t="shared" si="6"/>
-        <v>-4390</v>
+        <v>-5390</v>
       </c>
       <c r="R44" s="5">
         <f t="shared" si="7"/>
-        <v>-5390</v>
+        <v>-6390</v>
       </c>
     </row>
     <row r="45" spans="2:18">
@@ -3943,19 +3961,19 @@
       </c>
       <c r="O45" s="5">
         <f t="shared" si="4"/>
-        <v>-2400</v>
+        <v>-3400</v>
       </c>
       <c r="P45" s="5">
         <f t="shared" si="5"/>
-        <v>-3400</v>
+        <v>-4400</v>
       </c>
       <c r="Q45" s="5">
         <f t="shared" si="6"/>
-        <v>-4400</v>
+        <v>-5400</v>
       </c>
       <c r="R45" s="5">
         <f t="shared" si="7"/>
-        <v>-5400</v>
+        <v>-6400</v>
       </c>
     </row>
     <row r="46" spans="2:18">
@@ -4012,19 +4030,19 @@
       </c>
       <c r="O46" s="5">
         <f t="shared" si="4"/>
-        <v>-2410</v>
+        <v>-3410</v>
       </c>
       <c r="P46" s="5">
         <f t="shared" si="5"/>
-        <v>-3410</v>
+        <v>-4410</v>
       </c>
       <c r="Q46" s="5">
         <f t="shared" si="6"/>
-        <v>-4410</v>
+        <v>-5410</v>
       </c>
       <c r="R46" s="5">
         <f t="shared" si="7"/>
-        <v>-5410</v>
+        <v>-6410</v>
       </c>
     </row>
     <row r="47" spans="2:18">
@@ -4081,19 +4099,19 @@
       </c>
       <c r="O47" s="5">
         <f t="shared" si="4"/>
-        <v>-2420</v>
+        <v>-3420</v>
       </c>
       <c r="P47" s="5">
         <f t="shared" si="5"/>
-        <v>-3420</v>
+        <v>-4420</v>
       </c>
       <c r="Q47" s="5">
         <f t="shared" si="6"/>
-        <v>-4420</v>
+        <v>-5420</v>
       </c>
       <c r="R47" s="5">
         <f t="shared" si="7"/>
-        <v>-5420</v>
+        <v>-6420</v>
       </c>
     </row>
     <row r="48" spans="2:18">
@@ -4150,19 +4168,19 @@
       </c>
       <c r="O48" s="5">
         <f t="shared" si="4"/>
-        <v>-2430</v>
+        <v>-3430</v>
       </c>
       <c r="P48" s="5">
         <f t="shared" si="5"/>
-        <v>-3430</v>
+        <v>-4430</v>
       </c>
       <c r="Q48" s="5">
         <f t="shared" si="6"/>
-        <v>-4430</v>
+        <v>-5430</v>
       </c>
       <c r="R48" s="5">
         <f t="shared" si="7"/>
-        <v>-5430</v>
+        <v>-6430</v>
       </c>
     </row>
     <row r="49" spans="2:18">
@@ -4219,19 +4237,19 @@
       </c>
       <c r="O49" s="5">
         <f t="shared" si="4"/>
-        <v>-2440</v>
+        <v>-3440</v>
       </c>
       <c r="P49" s="5">
         <f t="shared" si="5"/>
-        <v>-3440</v>
+        <v>-4440</v>
       </c>
       <c r="Q49" s="5">
         <f t="shared" si="6"/>
-        <v>-4440</v>
+        <v>-5440</v>
       </c>
       <c r="R49" s="5">
         <f t="shared" si="7"/>
-        <v>-5440</v>
+        <v>-6440</v>
       </c>
     </row>
     <row r="50" spans="2:18">
@@ -4288,19 +4306,19 @@
       </c>
       <c r="O50" s="5">
         <f t="shared" si="4"/>
-        <v>-2450</v>
+        <v>-3450</v>
       </c>
       <c r="P50" s="5">
         <f t="shared" si="5"/>
-        <v>-3450</v>
+        <v>-4450</v>
       </c>
       <c r="Q50" s="5">
         <f t="shared" si="6"/>
-        <v>-4450</v>
+        <v>-5450</v>
       </c>
       <c r="R50" s="5">
         <f t="shared" si="7"/>
-        <v>-5450</v>
+        <v>-6450</v>
       </c>
     </row>
     <row r="51" spans="2:18">
@@ -4357,19 +4375,19 @@
       </c>
       <c r="O51" s="5">
         <f t="shared" si="4"/>
-        <v>-2460</v>
+        <v>-3460</v>
       </c>
       <c r="P51" s="5">
         <f t="shared" si="5"/>
-        <v>-3460</v>
+        <v>-4460</v>
       </c>
       <c r="Q51" s="5">
         <f t="shared" si="6"/>
-        <v>-4460</v>
+        <v>-5460</v>
       </c>
       <c r="R51" s="5">
         <f t="shared" si="7"/>
-        <v>-5460</v>
+        <v>-6460</v>
       </c>
     </row>
     <row r="52" spans="2:18">
@@ -4426,19 +4444,19 @@
       </c>
       <c r="O52" s="5">
         <f t="shared" si="4"/>
-        <v>-2470</v>
+        <v>-3470</v>
       </c>
       <c r="P52" s="5">
         <f t="shared" si="5"/>
-        <v>-3470</v>
+        <v>-4470</v>
       </c>
       <c r="Q52" s="5">
         <f t="shared" si="6"/>
-        <v>-4470</v>
+        <v>-5470</v>
       </c>
       <c r="R52" s="5">
         <f t="shared" si="7"/>
-        <v>-5470</v>
+        <v>-6470</v>
       </c>
     </row>
     <row r="53" spans="2:18">
@@ -4495,19 +4513,19 @@
       </c>
       <c r="O53" s="5">
         <f t="shared" si="4"/>
-        <v>-2480</v>
+        <v>-3480</v>
       </c>
       <c r="P53" s="5">
         <f t="shared" si="5"/>
-        <v>-3480</v>
+        <v>-4480</v>
       </c>
       <c r="Q53" s="5">
         <f t="shared" si="6"/>
-        <v>-4480</v>
+        <v>-5480</v>
       </c>
       <c r="R53" s="5">
         <f t="shared" si="7"/>
-        <v>-5480</v>
+        <v>-6480</v>
       </c>
     </row>
     <row r="54" spans="2:18">
@@ -4564,19 +4582,19 @@
       </c>
       <c r="O54" s="5">
         <f t="shared" si="4"/>
-        <v>-2490</v>
+        <v>-3490</v>
       </c>
       <c r="P54" s="5">
         <f t="shared" si="5"/>
-        <v>-3490</v>
+        <v>-4490</v>
       </c>
       <c r="Q54" s="5">
         <f t="shared" si="6"/>
-        <v>-4490</v>
+        <v>-5490</v>
       </c>
       <c r="R54" s="5">
         <f t="shared" si="7"/>
-        <v>-5490</v>
+        <v>-6490</v>
       </c>
     </row>
     <row r="55" spans="2:18">
@@ -4633,19 +4651,19 @@
       </c>
       <c r="O55" s="5">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="P55" s="5">
         <f t="shared" si="5"/>
-        <v>-3500</v>
+        <v>-4500</v>
       </c>
       <c r="Q55" s="5">
         <f t="shared" si="6"/>
-        <v>-4500</v>
+        <v>-5500</v>
       </c>
       <c r="R55" s="5">
         <f t="shared" si="7"/>
-        <v>-5500</v>
+        <v>-6500</v>
       </c>
     </row>
     <row r="56" spans="2:18">
@@ -4702,19 +4720,19 @@
       </c>
       <c r="O56" s="5">
         <f t="shared" si="4"/>
-        <v>-2510</v>
+        <v>-3510</v>
       </c>
       <c r="P56" s="5">
         <f t="shared" si="5"/>
-        <v>-3510</v>
+        <v>-4510</v>
       </c>
       <c r="Q56" s="5">
         <f t="shared" si="6"/>
-        <v>-4510</v>
+        <v>-5510</v>
       </c>
       <c r="R56" s="5">
         <f t="shared" si="7"/>
-        <v>-5510</v>
+        <v>-6510</v>
       </c>
     </row>
     <row r="57" spans="2:18">
@@ -4771,19 +4789,19 @@
       </c>
       <c r="O57" s="5">
         <f t="shared" si="4"/>
-        <v>-2520</v>
+        <v>-3520</v>
       </c>
       <c r="P57" s="5">
         <f t="shared" si="5"/>
-        <v>-3520</v>
+        <v>-4520</v>
       </c>
       <c r="Q57" s="5">
         <f t="shared" si="6"/>
-        <v>-4520</v>
+        <v>-5520</v>
       </c>
       <c r="R57" s="5">
         <f t="shared" si="7"/>
-        <v>-5520</v>
+        <v>-6520</v>
       </c>
     </row>
     <row r="58" spans="2:18">
@@ -4840,19 +4858,19 @@
       </c>
       <c r="O58" s="5">
         <f t="shared" si="4"/>
-        <v>-2530</v>
+        <v>-3530</v>
       </c>
       <c r="P58" s="5">
         <f t="shared" si="5"/>
-        <v>-3530</v>
+        <v>-4530</v>
       </c>
       <c r="Q58" s="5">
         <f t="shared" si="6"/>
-        <v>-4530</v>
+        <v>-5530</v>
       </c>
       <c r="R58" s="5">
         <f t="shared" si="7"/>
-        <v>-5530</v>
+        <v>-6530</v>
       </c>
     </row>
     <row r="59" spans="2:18">
@@ -4909,19 +4927,19 @@
       </c>
       <c r="O59" s="5">
         <f t="shared" si="4"/>
-        <v>-2540</v>
+        <v>-3540</v>
       </c>
       <c r="P59" s="5">
         <f t="shared" si="5"/>
-        <v>-3540</v>
+        <v>-4540</v>
       </c>
       <c r="Q59" s="5">
         <f t="shared" si="6"/>
-        <v>-4540</v>
+        <v>-5540</v>
       </c>
       <c r="R59" s="5">
         <f t="shared" si="7"/>
-        <v>-5540</v>
+        <v>-6540</v>
       </c>
     </row>
     <row r="60" spans="2:18">
@@ -4978,19 +4996,19 @@
       </c>
       <c r="O60" s="5">
         <f t="shared" si="4"/>
-        <v>-2550</v>
+        <v>-3550</v>
       </c>
       <c r="P60" s="5">
         <f t="shared" si="5"/>
-        <v>-3550</v>
+        <v>-4550</v>
       </c>
       <c r="Q60" s="5">
         <f t="shared" si="6"/>
-        <v>-4550</v>
+        <v>-5550</v>
       </c>
       <c r="R60" s="5">
         <f t="shared" si="7"/>
-        <v>-5550</v>
+        <v>-6550</v>
       </c>
     </row>
     <row r="61" spans="2:18">
@@ -5047,19 +5065,19 @@
       </c>
       <c r="O61" s="5">
         <f t="shared" si="4"/>
-        <v>-2560</v>
+        <v>-3560</v>
       </c>
       <c r="P61" s="5">
         <f t="shared" si="5"/>
-        <v>-3560</v>
+        <v>-4560</v>
       </c>
       <c r="Q61" s="5">
         <f t="shared" si="6"/>
-        <v>-4560</v>
+        <v>-5560</v>
       </c>
       <c r="R61" s="5">
         <f t="shared" si="7"/>
-        <v>-5560</v>
+        <v>-6560</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -5116,19 +5134,19 @@
       </c>
       <c r="O62" s="5">
         <f t="shared" si="4"/>
-        <v>-2570</v>
+        <v>-3570</v>
       </c>
       <c r="P62" s="5">
         <f t="shared" si="5"/>
-        <v>-3570</v>
+        <v>-4570</v>
       </c>
       <c r="Q62" s="5">
         <f t="shared" si="6"/>
-        <v>-4570</v>
+        <v>-5570</v>
       </c>
       <c r="R62" s="5">
         <f t="shared" si="7"/>
-        <v>-5570</v>
+        <v>-6570</v>
       </c>
     </row>
     <row r="63" spans="2:18">
@@ -5185,19 +5203,19 @@
       </c>
       <c r="O63" s="5">
         <f t="shared" si="4"/>
-        <v>-2580</v>
+        <v>-3580</v>
       </c>
       <c r="P63" s="5">
         <f t="shared" si="5"/>
-        <v>-3580</v>
+        <v>-4580</v>
       </c>
       <c r="Q63" s="5">
         <f t="shared" si="6"/>
-        <v>-4580</v>
+        <v>-5580</v>
       </c>
       <c r="R63" s="5">
         <f t="shared" si="7"/>
-        <v>-5580</v>
+        <v>-6580</v>
       </c>
     </row>
     <row r="64" spans="2:18">
@@ -5254,19 +5272,19 @@
       </c>
       <c r="O64" s="5">
         <f t="shared" si="4"/>
-        <v>-2590</v>
+        <v>-3590</v>
       </c>
       <c r="P64" s="5">
         <f t="shared" si="5"/>
-        <v>-3590</v>
+        <v>-4590</v>
       </c>
       <c r="Q64" s="5">
         <f t="shared" si="6"/>
-        <v>-4590</v>
+        <v>-5590</v>
       </c>
       <c r="R64" s="5">
         <f t="shared" si="7"/>
-        <v>-5590</v>
+        <v>-6590</v>
       </c>
     </row>
     <row r="65" spans="2:18">
@@ -5323,19 +5341,19 @@
       </c>
       <c r="O65" s="5">
         <f t="shared" si="4"/>
-        <v>-2600</v>
+        <v>-3600</v>
       </c>
       <c r="P65" s="5">
         <f t="shared" si="5"/>
-        <v>-3600</v>
+        <v>-4600</v>
       </c>
       <c r="Q65" s="5">
         <f t="shared" si="6"/>
-        <v>-4600</v>
+        <v>-5600</v>
       </c>
       <c r="R65" s="5">
         <f t="shared" si="7"/>
-        <v>-5600</v>
+        <v>-6600</v>
       </c>
     </row>
     <row r="66" spans="2:18">
@@ -5392,19 +5410,19 @@
       </c>
       <c r="O66" s="5">
         <f t="shared" si="4"/>
-        <v>-2610</v>
+        <v>-3610</v>
       </c>
       <c r="P66" s="5">
         <f t="shared" si="5"/>
-        <v>-3610</v>
+        <v>-4610</v>
       </c>
       <c r="Q66" s="5">
         <f t="shared" si="6"/>
-        <v>-4610</v>
+        <v>-5610</v>
       </c>
       <c r="R66" s="5">
         <f t="shared" si="7"/>
-        <v>-5610</v>
+        <v>-6610</v>
       </c>
     </row>
     <row r="67" spans="2:18">
@@ -5461,19 +5479,19 @@
       </c>
       <c r="O67" s="5">
         <f t="shared" si="4"/>
-        <v>-2620</v>
+        <v>-3620</v>
       </c>
       <c r="P67" s="5">
         <f t="shared" si="5"/>
-        <v>-3620</v>
+        <v>-4620</v>
       </c>
       <c r="Q67" s="5">
         <f t="shared" si="6"/>
-        <v>-4620</v>
+        <v>-5620</v>
       </c>
       <c r="R67" s="5">
         <f t="shared" si="7"/>
-        <v>-5620</v>
+        <v>-6620</v>
       </c>
     </row>
     <row r="68" spans="2:18">
@@ -5530,19 +5548,19 @@
       </c>
       <c r="O68" s="5">
         <f t="shared" si="4"/>
-        <v>-2630</v>
+        <v>-3630</v>
       </c>
       <c r="P68" s="5">
         <f t="shared" si="5"/>
-        <v>-3630</v>
+        <v>-4630</v>
       </c>
       <c r="Q68" s="5">
         <f t="shared" si="6"/>
-        <v>-4630</v>
+        <v>-5630</v>
       </c>
       <c r="R68" s="5">
         <f t="shared" si="7"/>
-        <v>-5630</v>
+        <v>-6630</v>
       </c>
     </row>
     <row r="69" spans="2:18">
@@ -5599,19 +5617,19 @@
       </c>
       <c r="O69" s="5">
         <f t="shared" si="4"/>
-        <v>-2640</v>
+        <v>-3640</v>
       </c>
       <c r="P69" s="5">
         <f t="shared" si="5"/>
-        <v>-3640</v>
+        <v>-4640</v>
       </c>
       <c r="Q69" s="5">
         <f t="shared" si="6"/>
-        <v>-4640</v>
+        <v>-5640</v>
       </c>
       <c r="R69" s="5">
         <f t="shared" si="7"/>
-        <v>-5640</v>
+        <v>-6640</v>
       </c>
     </row>
     <row r="70" spans="2:18">
@@ -5668,19 +5686,19 @@
       </c>
       <c r="O70" s="5">
         <f t="shared" si="4"/>
-        <v>-2650</v>
+        <v>-3650</v>
       </c>
       <c r="P70" s="5">
         <f t="shared" si="5"/>
-        <v>-3650</v>
+        <v>-4650</v>
       </c>
       <c r="Q70" s="5">
         <f t="shared" si="6"/>
-        <v>-4650</v>
+        <v>-5650</v>
       </c>
       <c r="R70" s="5">
         <f t="shared" si="7"/>
-        <v>-5650</v>
+        <v>-6650</v>
       </c>
     </row>
     <row r="71" spans="2:18">
@@ -5736,20 +5754,20 @@
         <v>-1669</v>
       </c>
       <c r="O71" s="5">
-        <f t="shared" ref="O71:O105" si="12">-($C71+2000)</f>
-        <v>-2660</v>
+        <f t="shared" si="4"/>
+        <v>-3660</v>
       </c>
       <c r="P71" s="5">
-        <f t="shared" ref="P71:P105" si="13">-($C71+3000)</f>
-        <v>-3660</v>
+        <f t="shared" si="5"/>
+        <v>-4660</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" ref="Q71:Q105" si="14">-($C71+4000)</f>
-        <v>-4660</v>
+        <f t="shared" si="6"/>
+        <v>-5660</v>
       </c>
       <c r="R71" s="5">
-        <f t="shared" ref="R71:R105" si="15">-($C71+5000)</f>
-        <v>-5660</v>
+        <f t="shared" si="7"/>
+        <v>-6660</v>
       </c>
     </row>
     <row r="72" spans="2:18">
@@ -5805,20 +5823,20 @@
         <v>-1679</v>
       </c>
       <c r="O72" s="5">
-        <f t="shared" si="12"/>
-        <v>-2670</v>
+        <f t="shared" ref="O72:O104" si="12">-($C72+3000)</f>
+        <v>-3670</v>
       </c>
       <c r="P72" s="5">
-        <f t="shared" si="13"/>
-        <v>-3670</v>
+        <f t="shared" ref="P72:P104" si="13">-($C72+4000)</f>
+        <v>-4670</v>
       </c>
       <c r="Q72" s="5">
-        <f t="shared" si="14"/>
-        <v>-4670</v>
+        <f t="shared" ref="Q72:Q104" si="14">-($C72+5000)</f>
+        <v>-5670</v>
       </c>
       <c r="R72" s="5">
-        <f t="shared" si="15"/>
-        <v>-5670</v>
+        <f t="shared" ref="R72:R104" si="15">-($C72+6000)</f>
+        <v>-6670</v>
       </c>
     </row>
     <row r="73" spans="2:18">
@@ -5875,19 +5893,19 @@
       </c>
       <c r="O73" s="5">
         <f t="shared" si="12"/>
-        <v>-2680</v>
+        <v>-3680</v>
       </c>
       <c r="P73" s="5">
         <f t="shared" si="13"/>
-        <v>-3680</v>
+        <v>-4680</v>
       </c>
       <c r="Q73" s="5">
         <f t="shared" si="14"/>
-        <v>-4680</v>
+        <v>-5680</v>
       </c>
       <c r="R73" s="5">
         <f t="shared" si="15"/>
-        <v>-5680</v>
+        <v>-6680</v>
       </c>
     </row>
     <row r="74" spans="2:18">
@@ -5944,19 +5962,19 @@
       </c>
       <c r="O74" s="5">
         <f t="shared" si="12"/>
-        <v>-2690</v>
+        <v>-3690</v>
       </c>
       <c r="P74" s="5">
         <f t="shared" si="13"/>
-        <v>-3690</v>
+        <v>-4690</v>
       </c>
       <c r="Q74" s="5">
         <f t="shared" si="14"/>
-        <v>-4690</v>
+        <v>-5690</v>
       </c>
       <c r="R74" s="5">
         <f t="shared" si="15"/>
-        <v>-5690</v>
+        <v>-6690</v>
       </c>
     </row>
     <row r="75" spans="2:18">
@@ -6013,19 +6031,19 @@
       </c>
       <c r="O75" s="5">
         <f t="shared" si="12"/>
-        <v>-2700</v>
+        <v>-3700</v>
       </c>
       <c r="P75" s="5">
         <f t="shared" si="13"/>
-        <v>-3700</v>
+        <v>-4700</v>
       </c>
       <c r="Q75" s="5">
         <f t="shared" si="14"/>
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="R75" s="5">
         <f t="shared" si="15"/>
-        <v>-5700</v>
+        <v>-6700</v>
       </c>
     </row>
     <row r="76" spans="2:18">
@@ -6082,19 +6100,19 @@
       </c>
       <c r="O76" s="5">
         <f t="shared" si="12"/>
-        <v>-2710</v>
+        <v>-3710</v>
       </c>
       <c r="P76" s="5">
         <f t="shared" si="13"/>
-        <v>-3710</v>
+        <v>-4710</v>
       </c>
       <c r="Q76" s="5">
         <f t="shared" si="14"/>
-        <v>-4710</v>
+        <v>-5710</v>
       </c>
       <c r="R76" s="5">
         <f t="shared" si="15"/>
-        <v>-5710</v>
+        <v>-6710</v>
       </c>
     </row>
     <row r="77" spans="2:18">
@@ -6151,19 +6169,19 @@
       </c>
       <c r="O77" s="5">
         <f t="shared" si="12"/>
-        <v>-2720</v>
+        <v>-3720</v>
       </c>
       <c r="P77" s="5">
         <f t="shared" si="13"/>
-        <v>-3720</v>
+        <v>-4720</v>
       </c>
       <c r="Q77" s="5">
         <f t="shared" si="14"/>
-        <v>-4720</v>
+        <v>-5720</v>
       </c>
       <c r="R77" s="5">
         <f t="shared" si="15"/>
-        <v>-5720</v>
+        <v>-6720</v>
       </c>
     </row>
     <row r="78" spans="2:18">
@@ -6220,19 +6238,19 @@
       </c>
       <c r="O78" s="5">
         <f t="shared" si="12"/>
-        <v>-2730</v>
+        <v>-3730</v>
       </c>
       <c r="P78" s="5">
         <f t="shared" si="13"/>
-        <v>-3730</v>
+        <v>-4730</v>
       </c>
       <c r="Q78" s="5">
         <f t="shared" si="14"/>
-        <v>-4730</v>
+        <v>-5730</v>
       </c>
       <c r="R78" s="5">
         <f t="shared" si="15"/>
-        <v>-5730</v>
+        <v>-6730</v>
       </c>
     </row>
     <row r="79" spans="2:18">
@@ -6289,19 +6307,19 @@
       </c>
       <c r="O79" s="5">
         <f t="shared" si="12"/>
-        <v>-2740</v>
+        <v>-3740</v>
       </c>
       <c r="P79" s="5">
         <f t="shared" si="13"/>
-        <v>-3740</v>
+        <v>-4740</v>
       </c>
       <c r="Q79" s="5">
         <f t="shared" si="14"/>
-        <v>-4740</v>
+        <v>-5740</v>
       </c>
       <c r="R79" s="5">
         <f t="shared" si="15"/>
-        <v>-5740</v>
+        <v>-6740</v>
       </c>
     </row>
     <row r="80" spans="2:18">
@@ -6358,19 +6376,19 @@
       </c>
       <c r="O80" s="5">
         <f t="shared" si="12"/>
-        <v>-2750</v>
+        <v>-3750</v>
       </c>
       <c r="P80" s="5">
         <f t="shared" si="13"/>
-        <v>-3750</v>
+        <v>-4750</v>
       </c>
       <c r="Q80" s="5">
         <f t="shared" si="14"/>
-        <v>-4750</v>
+        <v>-5750</v>
       </c>
       <c r="R80" s="5">
         <f t="shared" si="15"/>
-        <v>-5750</v>
+        <v>-6750</v>
       </c>
     </row>
     <row r="81" spans="2:18">
@@ -6427,19 +6445,19 @@
       </c>
       <c r="O81" s="5">
         <f t="shared" si="12"/>
-        <v>-2760</v>
+        <v>-3760</v>
       </c>
       <c r="P81" s="5">
         <f t="shared" si="13"/>
-        <v>-3760</v>
+        <v>-4760</v>
       </c>
       <c r="Q81" s="5">
         <f t="shared" si="14"/>
-        <v>-4760</v>
+        <v>-5760</v>
       </c>
       <c r="R81" s="5">
         <f t="shared" si="15"/>
-        <v>-5760</v>
+        <v>-6760</v>
       </c>
     </row>
     <row r="82" spans="2:18">
@@ -6496,19 +6514,19 @@
       </c>
       <c r="O82" s="5">
         <f t="shared" si="12"/>
-        <v>-2770</v>
+        <v>-3770</v>
       </c>
       <c r="P82" s="5">
         <f t="shared" si="13"/>
-        <v>-3770</v>
+        <v>-4770</v>
       </c>
       <c r="Q82" s="5">
         <f t="shared" si="14"/>
-        <v>-4770</v>
+        <v>-5770</v>
       </c>
       <c r="R82" s="5">
         <f t="shared" si="15"/>
-        <v>-5770</v>
+        <v>-6770</v>
       </c>
     </row>
     <row r="83" spans="2:18">
@@ -6565,19 +6583,19 @@
       </c>
       <c r="O83" s="5">
         <f t="shared" si="12"/>
-        <v>-2780</v>
+        <v>-3780</v>
       </c>
       <c r="P83" s="5">
         <f t="shared" si="13"/>
-        <v>-3780</v>
+        <v>-4780</v>
       </c>
       <c r="Q83" s="5">
         <f t="shared" si="14"/>
-        <v>-4780</v>
+        <v>-5780</v>
       </c>
       <c r="R83" s="5">
         <f t="shared" si="15"/>
-        <v>-5780</v>
+        <v>-6780</v>
       </c>
     </row>
     <row r="84" spans="2:18">
@@ -6634,19 +6652,19 @@
       </c>
       <c r="O84" s="5">
         <f t="shared" si="12"/>
-        <v>-2790</v>
+        <v>-3790</v>
       </c>
       <c r="P84" s="5">
         <f t="shared" si="13"/>
-        <v>-3790</v>
+        <v>-4790</v>
       </c>
       <c r="Q84" s="5">
         <f t="shared" si="14"/>
-        <v>-4790</v>
+        <v>-5790</v>
       </c>
       <c r="R84" s="5">
         <f t="shared" si="15"/>
-        <v>-5790</v>
+        <v>-6790</v>
       </c>
     </row>
     <row r="85" spans="2:18">
@@ -6703,19 +6721,19 @@
       </c>
       <c r="O85" s="5">
         <f t="shared" si="12"/>
-        <v>-2800</v>
+        <v>-3800</v>
       </c>
       <c r="P85" s="5">
         <f t="shared" si="13"/>
-        <v>-3800</v>
+        <v>-4800</v>
       </c>
       <c r="Q85" s="5">
         <f t="shared" si="14"/>
-        <v>-4800</v>
+        <v>-5800</v>
       </c>
       <c r="R85" s="5">
         <f t="shared" si="15"/>
-        <v>-5800</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="86" spans="2:18">
@@ -6772,19 +6790,19 @@
       </c>
       <c r="O86" s="5">
         <f t="shared" si="12"/>
-        <v>-2810</v>
+        <v>-3810</v>
       </c>
       <c r="P86" s="5">
         <f t="shared" si="13"/>
-        <v>-3810</v>
+        <v>-4810</v>
       </c>
       <c r="Q86" s="5">
         <f t="shared" si="14"/>
-        <v>-4810</v>
+        <v>-5810</v>
       </c>
       <c r="R86" s="5">
         <f t="shared" si="15"/>
-        <v>-5810</v>
+        <v>-6810</v>
       </c>
     </row>
     <row r="87" spans="2:18">
@@ -6841,19 +6859,19 @@
       </c>
       <c r="O87" s="5">
         <f t="shared" si="12"/>
-        <v>-2820</v>
+        <v>-3820</v>
       </c>
       <c r="P87" s="5">
         <f t="shared" si="13"/>
-        <v>-3820</v>
+        <v>-4820</v>
       </c>
       <c r="Q87" s="5">
         <f t="shared" si="14"/>
-        <v>-4820</v>
+        <v>-5820</v>
       </c>
       <c r="R87" s="5">
         <f t="shared" si="15"/>
-        <v>-5820</v>
+        <v>-6820</v>
       </c>
     </row>
     <row r="88" spans="2:18">
@@ -6910,19 +6928,19 @@
       </c>
       <c r="O88" s="5">
         <f t="shared" si="12"/>
-        <v>-2830</v>
+        <v>-3830</v>
       </c>
       <c r="P88" s="5">
         <f t="shared" si="13"/>
-        <v>-3830</v>
+        <v>-4830</v>
       </c>
       <c r="Q88" s="5">
         <f t="shared" si="14"/>
-        <v>-4830</v>
+        <v>-5830</v>
       </c>
       <c r="R88" s="5">
         <f t="shared" si="15"/>
-        <v>-5830</v>
+        <v>-6830</v>
       </c>
     </row>
     <row r="89" spans="2:18">
@@ -6979,19 +6997,19 @@
       </c>
       <c r="O89" s="5">
         <f t="shared" si="12"/>
-        <v>-2840</v>
+        <v>-3840</v>
       </c>
       <c r="P89" s="5">
         <f t="shared" si="13"/>
-        <v>-3840</v>
+        <v>-4840</v>
       </c>
       <c r="Q89" s="5">
         <f t="shared" si="14"/>
-        <v>-4840</v>
+        <v>-5840</v>
       </c>
       <c r="R89" s="5">
         <f t="shared" si="15"/>
-        <v>-5840</v>
+        <v>-6840</v>
       </c>
     </row>
     <row r="90" spans="2:18">
@@ -7048,19 +7066,19 @@
       </c>
       <c r="O90" s="5">
         <f t="shared" si="12"/>
-        <v>-2850</v>
+        <v>-3850</v>
       </c>
       <c r="P90" s="5">
         <f t="shared" si="13"/>
-        <v>-3850</v>
+        <v>-4850</v>
       </c>
       <c r="Q90" s="5">
         <f t="shared" si="14"/>
-        <v>-4850</v>
+        <v>-5850</v>
       </c>
       <c r="R90" s="5">
         <f t="shared" si="15"/>
-        <v>-5850</v>
+        <v>-6850</v>
       </c>
     </row>
     <row r="91" spans="2:18">
@@ -7117,19 +7135,19 @@
       </c>
       <c r="O91" s="5">
         <f t="shared" si="12"/>
-        <v>-2860</v>
+        <v>-3860</v>
       </c>
       <c r="P91" s="5">
         <f t="shared" si="13"/>
-        <v>-3860</v>
+        <v>-4860</v>
       </c>
       <c r="Q91" s="5">
         <f t="shared" si="14"/>
-        <v>-4860</v>
+        <v>-5860</v>
       </c>
       <c r="R91" s="5">
         <f t="shared" si="15"/>
-        <v>-5860</v>
+        <v>-6860</v>
       </c>
     </row>
     <row r="92" spans="2:18">
@@ -7186,19 +7204,19 @@
       </c>
       <c r="O92" s="5">
         <f t="shared" si="12"/>
-        <v>-2870</v>
+        <v>-3870</v>
       </c>
       <c r="P92" s="5">
         <f t="shared" si="13"/>
-        <v>-3870</v>
+        <v>-4870</v>
       </c>
       <c r="Q92" s="5">
         <f t="shared" si="14"/>
-        <v>-4870</v>
+        <v>-5870</v>
       </c>
       <c r="R92" s="5">
         <f t="shared" si="15"/>
-        <v>-5870</v>
+        <v>-6870</v>
       </c>
     </row>
     <row r="93" spans="2:18">
@@ -7255,19 +7273,19 @@
       </c>
       <c r="O93" s="5">
         <f t="shared" si="12"/>
-        <v>-2880</v>
+        <v>-3880</v>
       </c>
       <c r="P93" s="5">
         <f t="shared" si="13"/>
-        <v>-3880</v>
+        <v>-4880</v>
       </c>
       <c r="Q93" s="5">
         <f t="shared" si="14"/>
-        <v>-4880</v>
+        <v>-5880</v>
       </c>
       <c r="R93" s="5">
         <f t="shared" si="15"/>
-        <v>-5880</v>
+        <v>-6880</v>
       </c>
     </row>
     <row r="94" spans="2:18">
@@ -7324,19 +7342,19 @@
       </c>
       <c r="O94" s="5">
         <f t="shared" si="12"/>
-        <v>-2890</v>
+        <v>-3890</v>
       </c>
       <c r="P94" s="5">
         <f t="shared" si="13"/>
-        <v>-3890</v>
+        <v>-4890</v>
       </c>
       <c r="Q94" s="5">
         <f t="shared" si="14"/>
-        <v>-4890</v>
+        <v>-5890</v>
       </c>
       <c r="R94" s="5">
         <f t="shared" si="15"/>
-        <v>-5890</v>
+        <v>-6890</v>
       </c>
     </row>
     <row r="95" spans="2:18">
@@ -7393,19 +7411,19 @@
       </c>
       <c r="O95" s="5">
         <f t="shared" si="12"/>
-        <v>-2900</v>
+        <v>-3900</v>
       </c>
       <c r="P95" s="5">
         <f t="shared" si="13"/>
-        <v>-3900</v>
+        <v>-4900</v>
       </c>
       <c r="Q95" s="5">
         <f t="shared" si="14"/>
-        <v>-4900</v>
+        <v>-5900</v>
       </c>
       <c r="R95" s="5">
         <f t="shared" si="15"/>
-        <v>-5900</v>
+        <v>-6900</v>
       </c>
     </row>
     <row r="96" spans="2:18">
@@ -7462,19 +7480,19 @@
       </c>
       <c r="O96" s="5">
         <f t="shared" si="12"/>
-        <v>-2910</v>
+        <v>-3910</v>
       </c>
       <c r="P96" s="5">
         <f t="shared" si="13"/>
-        <v>-3910</v>
+        <v>-4910</v>
       </c>
       <c r="Q96" s="5">
         <f t="shared" si="14"/>
-        <v>-4910</v>
+        <v>-5910</v>
       </c>
       <c r="R96" s="5">
         <f t="shared" si="15"/>
-        <v>-5910</v>
+        <v>-6910</v>
       </c>
     </row>
     <row r="97" spans="2:18">
@@ -7531,19 +7549,19 @@
       </c>
       <c r="O97" s="5">
         <f t="shared" si="12"/>
-        <v>-2920</v>
+        <v>-3920</v>
       </c>
       <c r="P97" s="5">
         <f t="shared" si="13"/>
-        <v>-3920</v>
+        <v>-4920</v>
       </c>
       <c r="Q97" s="5">
         <f t="shared" si="14"/>
-        <v>-4920</v>
+        <v>-5920</v>
       </c>
       <c r="R97" s="5">
         <f t="shared" si="15"/>
-        <v>-5920</v>
+        <v>-6920</v>
       </c>
     </row>
     <row r="98" spans="2:18">
@@ -7600,19 +7618,19 @@
       </c>
       <c r="O98" s="5">
         <f t="shared" si="12"/>
-        <v>-2930</v>
+        <v>-3930</v>
       </c>
       <c r="P98" s="5">
         <f t="shared" si="13"/>
-        <v>-3930</v>
+        <v>-4930</v>
       </c>
       <c r="Q98" s="5">
         <f t="shared" si="14"/>
-        <v>-4930</v>
+        <v>-5930</v>
       </c>
       <c r="R98" s="5">
         <f t="shared" si="15"/>
-        <v>-5930</v>
+        <v>-6930</v>
       </c>
     </row>
     <row r="99" spans="2:18">
@@ -7669,19 +7687,19 @@
       </c>
       <c r="O99" s="5">
         <f t="shared" si="12"/>
-        <v>-2940</v>
+        <v>-3940</v>
       </c>
       <c r="P99" s="5">
         <f t="shared" si="13"/>
-        <v>-3940</v>
+        <v>-4940</v>
       </c>
       <c r="Q99" s="5">
         <f t="shared" si="14"/>
-        <v>-4940</v>
+        <v>-5940</v>
       </c>
       <c r="R99" s="5">
         <f t="shared" si="15"/>
-        <v>-5940</v>
+        <v>-6940</v>
       </c>
     </row>
     <row r="100" spans="2:18">
@@ -7738,19 +7756,19 @@
       </c>
       <c r="O100" s="5">
         <f t="shared" si="12"/>
-        <v>-2950</v>
+        <v>-3950</v>
       </c>
       <c r="P100" s="5">
         <f t="shared" si="13"/>
-        <v>-3950</v>
+        <v>-4950</v>
       </c>
       <c r="Q100" s="5">
         <f t="shared" si="14"/>
-        <v>-4950</v>
+        <v>-5950</v>
       </c>
       <c r="R100" s="5">
         <f t="shared" si="15"/>
-        <v>-5950</v>
+        <v>-6950</v>
       </c>
     </row>
     <row r="101" spans="2:18">
@@ -7807,19 +7825,19 @@
       </c>
       <c r="O101" s="5">
         <f t="shared" si="12"/>
-        <v>-2960</v>
+        <v>-3960</v>
       </c>
       <c r="P101" s="5">
         <f t="shared" si="13"/>
-        <v>-3960</v>
+        <v>-4960</v>
       </c>
       <c r="Q101" s="5">
         <f t="shared" si="14"/>
-        <v>-4960</v>
+        <v>-5960</v>
       </c>
       <c r="R101" s="5">
         <f t="shared" si="15"/>
-        <v>-5960</v>
+        <v>-6960</v>
       </c>
     </row>
     <row r="102" spans="2:18">
@@ -7876,19 +7894,19 @@
       </c>
       <c r="O102" s="5">
         <f t="shared" si="12"/>
-        <v>-2970</v>
+        <v>-3970</v>
       </c>
       <c r="P102" s="5">
         <f t="shared" si="13"/>
-        <v>-3970</v>
+        <v>-4970</v>
       </c>
       <c r="Q102" s="5">
         <f t="shared" si="14"/>
-        <v>-4970</v>
+        <v>-5970</v>
       </c>
       <c r="R102" s="5">
         <f t="shared" si="15"/>
-        <v>-5970</v>
+        <v>-6970</v>
       </c>
     </row>
     <row r="103" spans="2:18">
@@ -7945,19 +7963,19 @@
       </c>
       <c r="O103" s="5">
         <f t="shared" si="12"/>
-        <v>-2980</v>
+        <v>-3980</v>
       </c>
       <c r="P103" s="5">
         <f t="shared" si="13"/>
-        <v>-3980</v>
+        <v>-4980</v>
       </c>
       <c r="Q103" s="5">
         <f t="shared" si="14"/>
-        <v>-4980</v>
+        <v>-5980</v>
       </c>
       <c r="R103" s="5">
         <f t="shared" si="15"/>
-        <v>-5980</v>
+        <v>-6980</v>
       </c>
     </row>
     <row r="104" spans="2:18">
@@ -8014,19 +8032,19 @@
       </c>
       <c r="O104" s="5">
         <f t="shared" si="12"/>
-        <v>-2990</v>
+        <v>-3990</v>
       </c>
       <c r="P104" s="5">
         <f t="shared" si="13"/>
-        <v>-3990</v>
+        <v>-4990</v>
       </c>
       <c r="Q104" s="5">
         <f t="shared" si="14"/>
-        <v>-4990</v>
+        <v>-5990</v>
       </c>
       <c r="R104" s="5">
         <f t="shared" si="15"/>
-        <v>-5990</v>
+        <v>-6990</v>
       </c>
     </row>
     <row r="105" spans="2:18" ht="16" thickBot="1">
@@ -8082,20 +8100,20 @@
         <v>-2009</v>
       </c>
       <c r="O105" s="6">
-        <f t="shared" si="12"/>
-        <v>-3000</v>
+        <f>-($C105+3000)</f>
+        <v>-4000</v>
       </c>
       <c r="P105" s="6">
-        <f t="shared" si="13"/>
-        <v>-4000</v>
+        <f>-($C105+4000)</f>
+        <v>-5000</v>
       </c>
       <c r="Q105" s="6">
-        <f t="shared" si="14"/>
-        <v>-5000</v>
+        <f>-($C105+5000)</f>
+        <v>-6000</v>
       </c>
       <c r="R105" s="6">
-        <f t="shared" si="15"/>
-        <v>-6000</v>
+        <f>-($C105+6000)</f>
+        <v>-7000</v>
       </c>
     </row>
   </sheetData>
